--- a/public/plantilla_asistencia.xlsx
+++ b/public/plantilla_asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Informacion por participante </t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sesión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota de Sesion</t>
   </si>
 </sst>
 </file>
@@ -136,30 +139,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FFFF8080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -224,80 +209,72 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,66 +287,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C6E7"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFED7D31"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -553,25 +470,26 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="38.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="16" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -590,7 +508,7 @@
       <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="5"/>
@@ -637,13 +555,15 @@
       <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -657,1120 +577,1120 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="15"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="15"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="15"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="15"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="15"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="15"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="15"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="15"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="15"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="15"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="15"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="15"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="15"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="13"/>
     </row>
     <row r="18" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="15"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="13"/>
     </row>
     <row r="19" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="15"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="13"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="15"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="13"/>
     </row>
     <row r="21" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="15"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="13"/>
     </row>
     <row r="22" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="15"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="15"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="13"/>
     </row>
     <row r="24" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="15"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="15"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="15"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="15"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="15"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="15"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="15"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="15"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="15"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="15"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="15"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="15"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="15"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="15"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="13"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="15"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="13"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="15"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="15"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="13"/>
     </row>
     <row r="41" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="15"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="15"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="15"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="13"/>
     </row>
     <row r="44" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="15"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="13"/>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="15"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="13"/>
     </row>
     <row r="46" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="15"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="13"/>
     </row>
     <row r="47" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="15"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="13"/>
     </row>
     <row r="48" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="15"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="13"/>
     </row>
     <row r="49" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="15"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="13"/>
     </row>
     <row r="50" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="15"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="13"/>
     </row>
     <row r="51" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="15"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="13"/>
     </row>
     <row r="52" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="15"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="13"/>
     </row>
     <row r="53" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="15"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="13"/>
     </row>
     <row r="54" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="15"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="13"/>
     </row>
     <row r="55" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="15"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="13"/>
     </row>
     <row r="56" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="15"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="13"/>
     </row>
     <row r="57" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="15"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="13"/>
     </row>
     <row r="58" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="15"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="13"/>
     </row>
     <row r="59" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="15"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="13"/>
     </row>
     <row r="60" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="15"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="13"/>
     </row>
     <row r="61" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="15"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="13"/>
     </row>
     <row r="62" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="17"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="15"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="13"/>
     </row>
     <row r="63" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="15"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="13"/>
     </row>
     <row r="64" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="17"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="15"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="13"/>
     </row>
     <row r="65" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="17"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
     </row>
     <row r="66" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
     </row>
     <row r="67" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18"/>
+      <c r="A67" s="16"/>
     </row>
     <row r="68" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J68" s="15"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2705,8 +2625,9 @@
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
